--- a/natmiOut/YoungD0/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.44705674907809</v>
+        <v>1.883886666666666</v>
       </c>
       <c r="H2">
-        <v>0.44705674907809</v>
+        <v>5.65166</v>
       </c>
       <c r="I2">
-        <v>0.4326863670396214</v>
+        <v>0.7298568945019562</v>
       </c>
       <c r="J2">
-        <v>0.4326863670396214</v>
+        <v>0.7298568945019563</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>4.461475707128397</v>
+        <v>32.33979697993333</v>
       </c>
       <c r="R2">
-        <v>4.461475707128397</v>
+        <v>291.0581728194</v>
       </c>
       <c r="S2">
-        <v>0.01450272624181115</v>
+        <v>0.04089719513965111</v>
       </c>
       <c r="T2">
-        <v>0.01450272624181115</v>
+        <v>0.04089719513965111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.44705674907809</v>
+        <v>1.883886666666666</v>
       </c>
       <c r="H3">
-        <v>0.44705674907809</v>
+        <v>5.65166</v>
       </c>
       <c r="I3">
-        <v>0.4326863670396214</v>
+        <v>0.7298568945019562</v>
       </c>
       <c r="J3">
-        <v>0.4326863670396214</v>
+        <v>0.7298568945019563</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>114.2966768957424</v>
+        <v>483.1120075600621</v>
       </c>
       <c r="R3">
-        <v>114.2966768957424</v>
+        <v>4348.00806804056</v>
       </c>
       <c r="S3">
-        <v>0.371539267314448</v>
+        <v>0.6109477452734829</v>
       </c>
       <c r="T3">
-        <v>0.371539267314448</v>
+        <v>0.6109477452734831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.44705674907809</v>
+        <v>1.883886666666666</v>
       </c>
       <c r="H4">
-        <v>0.44705674907809</v>
+        <v>5.65166</v>
       </c>
       <c r="I4">
-        <v>0.4326863670396214</v>
+        <v>0.7298568945019562</v>
       </c>
       <c r="J4">
-        <v>0.4326863670396214</v>
+        <v>0.7298568945019563</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>14.34921515447815</v>
+        <v>61.6886011039511</v>
       </c>
       <c r="R4">
-        <v>14.34921515447815</v>
+        <v>555.1974099355599</v>
       </c>
       <c r="S4">
-        <v>0.04664437348336221</v>
+        <v>0.07801195408882206</v>
       </c>
       <c r="T4">
-        <v>0.04664437348336221</v>
+        <v>0.07801195408882207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.353113764714056</v>
+        <v>0.353459</v>
       </c>
       <c r="H5">
-        <v>0.353113764714056</v>
+        <v>1.060377</v>
       </c>
       <c r="I5">
-        <v>0.3417631258691058</v>
+        <v>0.1369373713601492</v>
       </c>
       <c r="J5">
-        <v>0.3417631258691058</v>
+        <v>0.1369373713601492</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>3.523956379974542</v>
+        <v>6.06766452727</v>
       </c>
       <c r="R5">
-        <v>3.523956379974542</v>
+        <v>54.60898074543</v>
       </c>
       <c r="S5">
-        <v>0.01145517268763732</v>
+        <v>0.007673222573650542</v>
       </c>
       <c r="T5">
-        <v>0.01145517268763732</v>
+        <v>0.007673222573650544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.353113764714056</v>
+        <v>0.353459</v>
       </c>
       <c r="H6">
-        <v>0.353113764714056</v>
+        <v>1.060377</v>
       </c>
       <c r="I6">
-        <v>0.3417631258691058</v>
+        <v>0.1369373713601492</v>
       </c>
       <c r="J6">
-        <v>0.3417631258691058</v>
+        <v>0.1369373713601492</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>90.27876205021076</v>
+        <v>90.64254771881467</v>
       </c>
       <c r="R6">
-        <v>90.27876205021076</v>
+        <v>815.7829294693321</v>
       </c>
       <c r="S6">
-        <v>0.2934652696577231</v>
+        <v>0.1146273727170177</v>
       </c>
       <c r="T6">
-        <v>0.2934652696577231</v>
+        <v>0.1146273727170177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.353113764714056</v>
+        <v>0.353459</v>
       </c>
       <c r="H7">
-        <v>0.353113764714056</v>
+        <v>1.060377</v>
       </c>
       <c r="I7">
-        <v>0.3417631258691058</v>
+        <v>0.1369373713601492</v>
       </c>
       <c r="J7">
-        <v>0.3417631258691058</v>
+        <v>0.1369373713601492</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>11.3339198979517</v>
+        <v>11.57415233273133</v>
       </c>
       <c r="R7">
-        <v>11.3339198979517</v>
+        <v>104.167370994582</v>
       </c>
       <c r="S7">
-        <v>0.03684268352374537</v>
+        <v>0.01463677606948098</v>
       </c>
       <c r="T7">
-        <v>0.03684268352374537</v>
+        <v>0.01463677606948098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.233041491792381</v>
+        <v>0.343827</v>
       </c>
       <c r="H8">
-        <v>0.233041491792381</v>
+        <v>1.031481</v>
       </c>
       <c r="I8">
-        <v>0.2255505070912728</v>
+        <v>0.1332057341378944</v>
       </c>
       <c r="J8">
-        <v>0.2255505070912728</v>
+        <v>0.1332057341378944</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>2.325675558033143</v>
+        <v>5.90231651031</v>
       </c>
       <c r="R8">
-        <v>2.325675558033143</v>
+        <v>53.12084859279</v>
       </c>
       <c r="S8">
-        <v>0.007559973013309375</v>
+        <v>0.00746412199952624</v>
       </c>
       <c r="T8">
-        <v>0.007559973013309375</v>
+        <v>0.00746412199952624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.233041491792381</v>
+        <v>0.343827</v>
       </c>
       <c r="H9">
-        <v>0.233041491792381</v>
+        <v>1.031481</v>
       </c>
       <c r="I9">
-        <v>0.2255505070912728</v>
+        <v>0.1332057341378944</v>
       </c>
       <c r="J9">
-        <v>0.2255505070912728</v>
+        <v>0.1332057341378944</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>59.5805077221705</v>
+        <v>88.172476169844</v>
       </c>
       <c r="R9">
-        <v>59.5805077221705</v>
+        <v>793.552285528596</v>
       </c>
       <c r="S9">
-        <v>0.1936757811909983</v>
+        <v>0.1115036982483797</v>
       </c>
       <c r="T9">
-        <v>0.1936757811909983</v>
+        <v>0.1115036982483797</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.233041491792381</v>
+        <v>0.343827</v>
       </c>
       <c r="H10">
-        <v>0.233041491792381</v>
+        <v>1.031481</v>
       </c>
       <c r="I10">
-        <v>0.2255505070912728</v>
+        <v>0.1332057341378944</v>
       </c>
       <c r="J10">
-        <v>0.2255505070912728</v>
+        <v>0.1332057341378944</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>7.479950839675882</v>
+        <v>11.258748749094</v>
       </c>
       <c r="R10">
-        <v>7.479950839675882</v>
+        <v>101.328738741846</v>
       </c>
       <c r="S10">
-        <v>0.02431475288696508</v>
+        <v>0.01423791388998848</v>
       </c>
       <c r="T10">
-        <v>0.02431475288696508</v>
+        <v>0.01423791388998848</v>
       </c>
     </row>
   </sheetData>
